--- a/output/StructureDefinition-PADI-HealthcareAgent.xlsx
+++ b/output/StructureDefinition-PADI-HealthcareAgent.xlsx
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>47</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>41</v>
@@ -2425,10 +2425,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-HealthcareAgent.xlsx
+++ b/output/StructureDefinition-PADI-HealthcareAgent.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="286">
   <si>
     <t>Path</t>
   </si>
@@ -434,7 +434,20 @@
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIHealthcareAgentRelationshipVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on $this pattern</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>code</t>
@@ -444,6 +457,221 @@
   </si>
   <si>
     <t>NK1-3</t>
+  </si>
+  <si>
+    <t>heatlhcare_agent_or_proxy_role</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIHealthcareAgentOrProxyChoicesVS</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>personal_and_legal_relationship_role</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIPersonalAndLegalRelationshipRoleTypeVS</t>
   </si>
   <si>
     <t>RelatedPerson.name</t>
@@ -505,9 +733,6 @@
     <t>Needed for identification of the person, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -624,25 +849,7 @@
     <t>RelatedPerson.communication.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.communication.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>RelatedPerson.communication.modifierExtension</t>
@@ -844,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -854,7 +1061,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -876,11 +1083,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="66.17578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.86328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.6875" customWidth="true" bestFit="true" hidden="true"/>
@@ -890,7 +1097,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="86.5" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2307,7 +2514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>128</v>
       </c>
@@ -2367,28 +2574,26 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>128</v>
@@ -2406,20 +2611,22 @@
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2431,7 +2638,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
@@ -2440,17 +2647,17 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2475,13 +2682,11 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2499,7 +2704,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2514,13 +2719,13 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2533,10 +2738,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2545,23 +2750,19 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2609,44 +2810,44 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -2655,21 +2856,21 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2693,57 +2894,57 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2751,7 +2952,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>47</v>
@@ -2766,16 +2967,20 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -2823,13 +3028,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2838,18 +3043,18 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2860,7 +3065,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -2869,21 +3074,19 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -2931,37 +3134,37 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2980,18 +3183,18 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3027,19 +3230,19 @@
         <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3051,21 +3254,21 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3085,19 +3288,23 @@
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
       </c>
@@ -3145,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3160,18 +3367,18 @@
         <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3182,7 +3389,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3191,23 +3398,21 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3255,13 +3460,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3270,18 +3475,18 @@
         <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3301,19 +3506,21 @@
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3361,7 +3568,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3373,32 +3580,32 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3407,21 +3614,21 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3469,68 +3676,68 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3579,33 +3786,33 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3613,7 +3820,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>47</v>
@@ -3625,22 +3832,22 @@
         <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3665,13 +3872,13 @@
         <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -3689,10 +3896,10 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>47</v>
@@ -3704,20 +3911,22 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>39</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3729,28 +3938,26 @@
         <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -3775,13 +3982,11 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -3799,13 +4004,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -3814,17 +4019,2617 @@
         <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL27">
+  <autoFilter ref="A1:AL51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3834,7 +6639,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-PADI-HealthcareAgent.xlsx
+++ b/output/StructureDefinition-PADI-HealthcareAgent.xlsx
@@ -1060,44 +1060,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.89453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.23046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.6875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.94140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.7890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="86.5" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.9296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="85.921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
